--- a/TEST/Setup.xlsx
+++ b/TEST/Setup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{18B99251-BA3C-4C9B-B7B5-56456E990F24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9BC46132-DADC-4870-8065-2257CF95B711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
   <si>
     <t>Pair</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>CADCHF</t>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+  </si>
+  <si>
+    <t>GBPAUD</t>
+  </si>
+  <si>
+    <t>GBPCAD</t>
+  </si>
+  <si>
+    <t>NZDCHF</t>
+  </si>
+  <si>
+    <t>NZDCAD</t>
+  </si>
+  <si>
+    <t>GBPNZD</t>
   </si>
 </sst>
 </file>
@@ -412,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,233 +685,387 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>8118301</v>
+        <v>8134122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>8118302</v>
+        <v>8134123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>8118303</v>
+        <v>8134124</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>8118304</v>
+        <v>8134125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>8118305</v>
+        <v>8134126</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>8118306</v>
+        <v>8134127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>8118307</v>
+        <v>8134128</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>8118308</v>
+        <v>8118301</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>8118309</v>
+        <v>8118302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>8118310</v>
+        <v>8118303</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>8118311</v>
+        <v>8118304</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>8118312</v>
+        <v>8118305</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>8118313</v>
+        <v>8118306</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>8118314</v>
+        <v>8118307</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>8118315</v>
+        <v>8118308</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>8118316</v>
+        <v>8118309</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>8118317</v>
+        <v>8118310</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>8118318</v>
+        <v>8118311</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>8118319</v>
+        <v>8118312</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>8118320</v>
+        <v>8118313</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>8118314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>8118315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8118316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>8118317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>8118318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>8118319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>8118320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
         <v>8134321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>8150322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>8166323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>8182324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>8198325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>8214326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>8230327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>8246328</v>
       </c>
     </row>
   </sheetData>
